--- a/data/LCI/recap_lci.xlsx
+++ b/data/LCI/recap_lci.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regional_minerals_sustainability/data/LCI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/LCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="578" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6249A646-2DAE-4B4D-8B83-13E4C97375B2}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1042,7 +1042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1055,7 +1055,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1414,10 +1413,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1686,7 +1681,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
@@ -1811,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA3F991-BDF1-4E00-9F2F-B1729FFC524F}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1844,7 +1839,7 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1888,7 +1883,7 @@
       <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1908,7 +1903,7 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>230</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1917,7 +1912,7 @@
       <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1949,7 +1944,7 @@
       <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -1981,7 +1976,7 @@
       <c r="I5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2004,7 +1999,7 @@
       <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2036,7 +2031,7 @@
       <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2068,7 +2063,7 @@
       <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2248,7 +2243,7 @@
       <c r="I14" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2300,7 +2295,7 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>265</v>
       </c>
       <c r="H16" t="s">
@@ -2329,7 +2324,7 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>265</v>
       </c>
       <c r="H17" t="s">
@@ -2364,7 +2359,7 @@
       <c r="I18" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2384,7 +2379,7 @@
       <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s">
         <v>265</v>
       </c>
       <c r="H19" t="s">
@@ -3366,7 +3361,7 @@
       <c r="E57" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" t="s">
         <v>265</v>
       </c>
       <c r="H57" t="s">
@@ -3395,7 +3390,7 @@
       <c r="E58" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" t="s">
         <v>265</v>
       </c>
       <c r="H58" t="s">
@@ -3424,7 +3419,7 @@
       <c r="E59" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" t="s">
         <v>265</v>
       </c>
       <c r="H59" t="s">
@@ -3453,7 +3448,7 @@
       <c r="E60" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" t="s">
         <v>265</v>
       </c>
       <c r="H60" t="s">
@@ -3482,7 +3477,7 @@
       <c r="E61" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" t="s">
         <v>265</v>
       </c>
       <c r="H61" t="s">
@@ -3511,7 +3506,7 @@
       <c r="E62" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" t="s">
         <v>265</v>
       </c>
       <c r="H62" t="s">
@@ -3540,7 +3535,7 @@
       <c r="E63" t="s">
         <v>64</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" t="s">
         <v>265</v>
       </c>
       <c r="H63" t="s">
@@ -3569,7 +3564,7 @@
       <c r="E64" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" t="s">
         <v>265</v>
       </c>
       <c r="H64" t="s">
@@ -3598,7 +3593,7 @@
       <c r="E65" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" t="s">
         <v>265</v>
       </c>
       <c r="H65" t="s">
@@ -3627,7 +3622,7 @@
       <c r="E66" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" t="s">
         <v>265</v>
       </c>
       <c r="H66" t="s">
@@ -3656,7 +3651,7 @@
       <c r="E67" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" t="s">
         <v>265</v>
       </c>
       <c r="H67" t="s">
@@ -3685,7 +3680,7 @@
       <c r="E68" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" t="s">
         <v>265</v>
       </c>
       <c r="H68" t="s">
@@ -3714,7 +3709,7 @@
       <c r="E69" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" t="s">
         <v>265</v>
       </c>
       <c r="H69" t="s">
@@ -3743,7 +3738,7 @@
       <c r="E70" t="s">
         <v>64</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" t="s">
         <v>265</v>
       </c>
       <c r="H70" t="s">
@@ -3772,7 +3767,7 @@
       <c r="E71" t="s">
         <v>64</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" t="s">
         <v>265</v>
       </c>
       <c r="H71" t="s">
@@ -3801,7 +3796,7 @@
       <c r="E72" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" t="s">
         <v>265</v>
       </c>
       <c r="H72" t="s">
@@ -3830,7 +3825,7 @@
       <c r="E73" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" t="s">
         <v>265</v>
       </c>
       <c r="H73" t="s">
@@ -3859,7 +3854,7 @@
       <c r="E74" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" t="s">
         <v>265</v>
       </c>
       <c r="H74" t="s">
@@ -3888,7 +3883,7 @@
       <c r="E75" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" t="s">
         <v>265</v>
       </c>
       <c r="H75" t="s">
@@ -3917,7 +3912,7 @@
       <c r="E76" t="s">
         <v>64</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" t="s">
         <v>265</v>
       </c>
       <c r="H76" t="s">
@@ -3946,7 +3941,7 @@
       <c r="E77" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" t="s">
         <v>265</v>
       </c>
       <c r="H77" t="s">
@@ -3975,7 +3970,7 @@
       <c r="E78" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" t="s">
         <v>265</v>
       </c>
       <c r="H78" t="s">
@@ -4004,7 +3999,7 @@
       <c r="E79" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" t="s">
         <v>265</v>
       </c>
       <c r="H79" t="s">
@@ -4033,7 +4028,7 @@
       <c r="E80" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" t="s">
         <v>265</v>
       </c>
       <c r="H80" t="s">
@@ -4088,7 +4083,7 @@
       <c r="E82" t="s">
         <v>64</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" t="s">
         <v>265</v>
       </c>
       <c r="H82" t="s">
@@ -4117,7 +4112,7 @@
       <c r="E83" t="s">
         <v>64</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" t="s">
         <v>265</v>
       </c>
       <c r="H83" t="s">
@@ -4146,7 +4141,7 @@
       <c r="E84" t="s">
         <v>64</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" t="s">
         <v>265</v>
       </c>
       <c r="H84" t="s">
@@ -4175,7 +4170,7 @@
       <c r="E85" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" t="s">
         <v>265</v>
       </c>
       <c r="H85" t="s">
@@ -4204,7 +4199,7 @@
       <c r="E86" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" t="s">
         <v>265</v>
       </c>
       <c r="H86" t="s">
@@ -4259,7 +4254,7 @@
       <c r="E88" t="s">
         <v>64</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" t="s">
         <v>265</v>
       </c>
       <c r="H88" t="s">
@@ -4288,7 +4283,7 @@
       <c r="E89" t="s">
         <v>64</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" t="s">
         <v>265</v>
       </c>
       <c r="H89" t="s">
@@ -4317,7 +4312,7 @@
       <c r="E90" t="s">
         <v>64</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" t="s">
         <v>265</v>
       </c>
       <c r="H90" t="s">
@@ -4346,7 +4341,7 @@
       <c r="E91" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" t="s">
         <v>265</v>
       </c>
       <c r="H91" t="s">
@@ -4375,7 +4370,7 @@
       <c r="E92" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" t="s">
         <v>265</v>
       </c>
       <c r="H92" t="s">
@@ -4404,7 +4399,7 @@
       <c r="E93" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" t="s">
         <v>265</v>
       </c>
       <c r="H93" t="s">
@@ -4433,7 +4428,7 @@
       <c r="E94" t="s">
         <v>28</v>
       </c>
-      <c r="F94" s="6"/>
+      <c r="F94"/>
       <c r="H94" t="s">
         <v>248</v>
       </c>
@@ -4460,7 +4455,7 @@
       <c r="E95" t="s">
         <v>27</v>
       </c>
-      <c r="F95" s="6"/>
+      <c r="F95"/>
       <c r="H95" t="s">
         <v>248</v>
       </c>
@@ -4487,7 +4482,7 @@
       <c r="E96" t="s">
         <v>64</v>
       </c>
-      <c r="F96" s="6"/>
+      <c r="F96"/>
       <c r="H96" t="s">
         <v>248</v>
       </c>
@@ -4519,25 +4514,25 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
